--- a/data/trans_orig/P16A_n_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>344710</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>315827</v>
+        <v>317693</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>375557</v>
+        <v>374019</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3341108563854952</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3061159215610755</v>
+        <v>0.3079250414672667</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3640099746892485</v>
+        <v>0.3625186571360079</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>613</v>
@@ -765,19 +765,19 @@
         <v>628223</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>593452</v>
+        <v>595578</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>664379</v>
+        <v>666124</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.477695117817044</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4512551639792915</v>
+        <v>0.4528720647879746</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5051875458826176</v>
+        <v>0.506514795493591</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>971</v>
@@ -786,19 +786,19 @@
         <v>972932</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>929647</v>
+        <v>927074</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1021989</v>
+        <v>1021028</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4145721747104311</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3961278637492309</v>
+        <v>0.395031630084653</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4354752585345965</v>
+        <v>0.4350659206714712</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>687013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>656166</v>
+        <v>657704</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>715896</v>
+        <v>714030</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6658891436145048</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6359900253107518</v>
+        <v>0.6374813428639921</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6938840784389247</v>
+        <v>0.6920749585327333</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>678</v>
@@ -836,19 +836,19 @@
         <v>686890</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>650734</v>
+        <v>648989</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>721661</v>
+        <v>719535</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5223048821829559</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4948124541173824</v>
+        <v>0.493485204506409</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5487448360207086</v>
+        <v>0.5471279352120253</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1358</v>
@@ -857,19 +857,19 @@
         <v>1373903</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1324846</v>
+        <v>1325807</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1417188</v>
+        <v>1419761</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5854278252895688</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5645247414654033</v>
+        <v>0.564934079328529</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.603872136250769</v>
+        <v>0.6049683699153471</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>159917</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>137569</v>
+        <v>137045</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>184450</v>
+        <v>184257</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09443471494498196</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08123790330314036</v>
+        <v>0.08092819798677302</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1089219031614834</v>
+        <v>0.1088082829365283</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>275</v>
@@ -982,19 +982,19 @@
         <v>284941</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>258035</v>
+        <v>257181</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>316747</v>
+        <v>315131</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.179470736978257</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1625239835251718</v>
+        <v>0.1619863103002112</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1995040229051469</v>
+        <v>0.1984859518484567</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>437</v>
@@ -1003,19 +1003,19 @@
         <v>444858</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>403401</v>
+        <v>404470</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>481876</v>
+        <v>484791</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1355824985527317</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1229474403651326</v>
+        <v>0.1232731459003239</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1468646786422319</v>
+        <v>0.1477530653724993</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1533496</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1508963</v>
+        <v>1509156</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1555844</v>
+        <v>1556368</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9055652850550181</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8910780968385165</v>
+        <v>0.8911917170634717</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9187620966968596</v>
+        <v>0.9190718020132269</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1279</v>
@@ -1053,19 +1053,19 @@
         <v>1302732</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1270926</v>
+        <v>1272542</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1329638</v>
+        <v>1330492</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.820529263021743</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8004959770948532</v>
+        <v>0.8015140481515434</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8374760164748282</v>
+        <v>0.8380136896997888</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2766</v>
@@ -1074,19 +1074,19 @@
         <v>2836228</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2799210</v>
+        <v>2796295</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2877685</v>
+        <v>2876616</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8644175014472684</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8531353213577682</v>
+        <v>0.8522469346275006</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8770525596348674</v>
+        <v>0.876726854099676</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>67474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52828</v>
+        <v>51679</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85953</v>
+        <v>83828</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1223665383768928</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09580572676099357</v>
+        <v>0.09372244388808439</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.15587960734078</v>
+        <v>0.1520254185407308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -1199,19 +1199,19 @@
         <v>93350</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77447</v>
+        <v>76285</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111852</v>
+        <v>111858</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1959440262003345</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1625625603770807</v>
+        <v>0.1601230671757251</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.234779609953726</v>
+        <v>0.234792325573084</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>154</v>
@@ -1220,19 +1220,19 @@
         <v>160824</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>138062</v>
+        <v>136304</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>186485</v>
+        <v>184493</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1564709399072858</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1343255129867864</v>
+        <v>0.1326150398383751</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1814373292793949</v>
+        <v>0.1794993205135212</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>483934</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>465455</v>
+        <v>467580</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>498580</v>
+        <v>499729</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8776334616231072</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.84412039265922</v>
+        <v>0.847974581459269</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9041942732390064</v>
+        <v>0.9062775561119155</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>362</v>
@@ -1270,19 +1270,19 @@
         <v>383062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>364560</v>
+        <v>364554</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>398965</v>
+        <v>400127</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8040559737996655</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7652203900462738</v>
+        <v>0.7652076744269157</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8374374396229193</v>
+        <v>0.8398769328242747</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>825</v>
@@ -1291,19 +1291,19 @@
         <v>866996</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>841335</v>
+        <v>843327</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>889758</v>
+        <v>891516</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8435290600927142</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.818562670720605</v>
+        <v>0.8205006794864789</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8656744870132136</v>
+        <v>0.8673849601616249</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>572101</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>531347</v>
+        <v>530181</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>614860</v>
+        <v>616674</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1746049280542592</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.162167081398725</v>
+        <v>0.1618109975640701</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1876550404954107</v>
+        <v>0.1882087690837782</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>978</v>
@@ -1416,19 +1416,19 @@
         <v>1006514</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>952948</v>
+        <v>949422</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1056861</v>
+        <v>1057767</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2978558674088527</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2820041681539491</v>
+        <v>0.2809607638758289</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3127551671621425</v>
+        <v>0.3130232135071188</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1562</v>
@@ -1437,19 +1437,19 @@
         <v>1578614</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1514495</v>
+        <v>1511258</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1655316</v>
+        <v>1653263</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2371808704929737</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2275471858814417</v>
+        <v>0.2270608141665972</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2487050156102262</v>
+        <v>0.2483965652012778</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2704442</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2661683</v>
+        <v>2659869</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2745196</v>
+        <v>2746362</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8253950719457408</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8123449595045892</v>
+        <v>0.8117912309162223</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8378329186012747</v>
+        <v>0.8381890024359302</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2319</v>
@@ -1487,19 +1487,19 @@
         <v>2372683</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2322336</v>
+        <v>2321430</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2426249</v>
+        <v>2429775</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7021441325911474</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6872448328378575</v>
+        <v>0.6869767864928813</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7179958318460508</v>
+        <v>0.7190392361241716</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4949</v>
@@ -1508,19 +1508,19 @@
         <v>5077127</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5000425</v>
+        <v>5002478</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5141246</v>
+        <v>5144483</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7628191295070262</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7512949843897736</v>
+        <v>0.7516034347987216</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7724528141185583</v>
+        <v>0.7729391858334027</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>472370</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>438283</v>
+        <v>439797</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>504344</v>
+        <v>503957</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4846591669290037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4496855783717076</v>
+        <v>0.4512385657365353</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.517465050221548</v>
+        <v>0.5170679153178703</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>774</v>
@@ -1872,19 +1872,19 @@
         <v>825861</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>790097</v>
+        <v>786893</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>861808</v>
+        <v>860414</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6173289245727556</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5905957302858779</v>
+        <v>0.5882005528162967</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6441994533246993</v>
+        <v>0.6431574098610386</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1204</v>
@@ -1893,19 +1893,19 @@
         <v>1298230</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1248829</v>
+        <v>1249681</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1346480</v>
+        <v>1343625</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5614115054091439</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5400479650041078</v>
+        <v>0.5404166781846043</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5822767587274853</v>
+        <v>0.5810420630405898</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>502273</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>470299</v>
+        <v>470686</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>536360</v>
+        <v>534846</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5153408330709963</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4825349497784519</v>
+        <v>0.4829320846821296</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5503144216282924</v>
+        <v>0.5487614342634647</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>473</v>
@@ -1943,19 +1943,19 @@
         <v>511936</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>475989</v>
+        <v>477383</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>547700</v>
+        <v>550904</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3826710754272444</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3558005466753003</v>
+        <v>0.3568425901389614</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4094042697141221</v>
+        <v>0.4117994471837033</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>951</v>
@@ -1964,19 +1964,19 @@
         <v>1014210</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>965960</v>
+        <v>968815</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1063611</v>
+        <v>1062759</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4385884945908561</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4177232412725147</v>
+        <v>0.4189579369594099</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4599520349958922</v>
+        <v>0.4595833218153957</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>328686</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>298604</v>
+        <v>296285</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>364938</v>
+        <v>365994</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1673592084332472</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1520421572794324</v>
+        <v>0.1508610986491372</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1858175619474587</v>
+        <v>0.1863553474005728</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>451</v>
@@ -2089,19 +2089,19 @@
         <v>492190</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>456286</v>
+        <v>454639</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>533667</v>
+        <v>530189</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2800031358092767</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2595773544369773</v>
+        <v>0.2586406673013213</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3035988534119808</v>
+        <v>0.3016202903669249</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>750</v>
@@ -2110,19 +2110,19 @@
         <v>820877</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>770380</v>
+        <v>769778</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>878420</v>
+        <v>876499</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2205614008397414</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2069934738968374</v>
+        <v>0.2068316625801434</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2360227567232549</v>
+        <v>0.235506622326763</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1635271</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1599019</v>
+        <v>1597963</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1665353</v>
+        <v>1667672</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8326407915667527</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.814182438052541</v>
+        <v>0.8136446525994272</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8479578427205675</v>
+        <v>0.8491389013508629</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1184</v>
@@ -2160,19 +2160,19 @@
         <v>1265613</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1224136</v>
+        <v>1227614</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1301517</v>
+        <v>1303164</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7199968641907233</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6964011465880192</v>
+        <v>0.6983797096330752</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7404226455630232</v>
+        <v>0.7413593326986788</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2741</v>
@@ -2181,19 +2181,19 @@
         <v>2900883</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2843340</v>
+        <v>2845261</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2951380</v>
+        <v>2951982</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7794385991602586</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7639772432767453</v>
+        <v>0.7644933776732371</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7930065261031627</v>
+        <v>0.7931683374198568</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>62749</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48307</v>
+        <v>47432</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79770</v>
+        <v>80621</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1304058184794174</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1003932633522924</v>
+        <v>0.09857430305697418</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1657786979746396</v>
+        <v>0.1675488960369677</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -2306,19 +2306,19 @@
         <v>104318</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>86236</v>
+        <v>85085</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125182</v>
+        <v>122861</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2274556974752895</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1880291473705322</v>
+        <v>0.185518872841037</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2729464307055905</v>
+        <v>0.267886962815879</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -2327,19 +2327,19 @@
         <v>167067</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142529</v>
+        <v>141246</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>192161</v>
+        <v>192335</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1777664253667103</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1516566232112085</v>
+        <v>0.1502914409069543</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2044671503590463</v>
+        <v>0.2046524718181423</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>418432</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>401411</v>
+        <v>400560</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>432874</v>
+        <v>433749</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8695941815205825</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8342213020253606</v>
+        <v>0.8324511039630317</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8996067366477077</v>
+        <v>0.9014256969430259</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>321</v>
@@ -2377,19 +2377,19 @@
         <v>354313</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>333449</v>
+        <v>335770</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>372395</v>
+        <v>373546</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7725443025247104</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7270535692944099</v>
+        <v>0.7321130371841216</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8119708526294679</v>
+        <v>0.8144811271589636</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>704</v>
@@ -2398,19 +2398,19 @@
         <v>772746</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>747652</v>
+        <v>747478</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>797284</v>
+        <v>798567</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8222335746332897</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7955328496409536</v>
+        <v>0.7953475281818576</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8483433767887915</v>
+        <v>0.8497085590930457</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>863805</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>810944</v>
+        <v>808707</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>918114</v>
+        <v>915166</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2525906396115576</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2371333224262609</v>
+        <v>0.2364791032847715</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.268471548521103</v>
+        <v>0.2676093108432682</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1316</v>
@@ -2523,19 +2523,19 @@
         <v>1422369</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1361020</v>
+        <v>1362812</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1484015</v>
+        <v>1483873</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4001904482626457</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3829295698794418</v>
+        <v>0.3834337355177032</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4175347938206327</v>
+        <v>0.417494935259267</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2100</v>
@@ -2544,19 +2544,19 @@
         <v>2286174</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2205598</v>
+        <v>2203619</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2368069</v>
+        <v>2362678</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3278132948222811</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3162595835324684</v>
+        <v>0.3159757722948036</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3395562689647078</v>
+        <v>0.3387831766659108</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2555977</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2501668</v>
+        <v>2504616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2608838</v>
+        <v>2611075</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7474093603884424</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7315284514788971</v>
+        <v>0.732390689156732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7628666775737398</v>
+        <v>0.7635208967152296</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1978</v>
@@ -2594,19 +2594,19 @@
         <v>2131861</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2070215</v>
+        <v>2070357</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2193210</v>
+        <v>2191418</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5998095517373544</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5824652061793674</v>
+        <v>0.582505064740733</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6170704301205583</v>
+        <v>0.6165662644822968</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4396</v>
@@ -2615,19 +2615,19 @@
         <v>4687838</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4605943</v>
+        <v>4611334</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4768414</v>
+        <v>4770393</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6721867051777188</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6604437310352923</v>
+        <v>0.6612168233340893</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6837404164675317</v>
+        <v>0.6840242277051964</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>318353</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>289733</v>
+        <v>293409</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>344375</v>
+        <v>345239</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4220240733532883</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.384084435126776</v>
+        <v>0.3889570740339416</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4565207662843077</v>
+        <v>0.4576664471419312</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>519</v>
@@ -2979,19 +2979,19 @@
         <v>596752</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>565008</v>
+        <v>566181</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>630251</v>
+        <v>628408</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.599955351304746</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5680418286113659</v>
+        <v>0.5692206161760948</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6336347614833258</v>
+        <v>0.631781932434596</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>856</v>
@@ -3000,19 +3000,19 @@
         <v>915104</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>869738</v>
+        <v>871283</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>951605</v>
+        <v>957588</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5232135829832123</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4972751494971614</v>
+        <v>0.4981589384385495</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5440829155309561</v>
+        <v>0.5475037595342582</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>435994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>409972</v>
+        <v>409108</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>464614</v>
+        <v>460938</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5779759266467117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5434792337156922</v>
+        <v>0.5423335528580686</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6159155648732236</v>
+        <v>0.6110429259660582</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>373</v>
@@ -3050,19 +3050,19 @@
         <v>397908</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>364409</v>
+        <v>366252</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>429652</v>
+        <v>428479</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.400044648695254</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3663652385166742</v>
+        <v>0.368218067565404</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4319581713886341</v>
+        <v>0.4307793838239053</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>798</v>
@@ -3071,19 +3071,19 @@
         <v>833903</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>797402</v>
+        <v>791419</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>879269</v>
+        <v>877724</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4767864170167876</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4559170844690441</v>
+        <v>0.4524962404657418</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5027248505028388</v>
+        <v>0.5018410615614505</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>366582</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>331984</v>
+        <v>331401</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>404974</v>
+        <v>402015</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1765483315077314</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1598854712728529</v>
+        <v>0.1596046609981366</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1950381009933342</v>
+        <v>0.1936129230093393</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>482</v>
@@ -3196,19 +3196,19 @@
         <v>528372</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>483621</v>
+        <v>488574</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>565504</v>
+        <v>567882</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2657408200056331</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2432335230146151</v>
+        <v>0.2457242493179983</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2844156900454586</v>
+        <v>0.2856115880614514</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>830</v>
@@ -3217,19 +3217,19 @@
         <v>894955</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>844281</v>
+        <v>839232</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>954261</v>
+        <v>949398</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2201781402969823</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2077112199047618</v>
+        <v>0.2064690822751488</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2347686728234669</v>
+        <v>0.2335724053462597</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1709803</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1671411</v>
+        <v>1674370</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1744401</v>
+        <v>1744984</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8234516684922687</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8049618990066658</v>
+        <v>0.8063870769906607</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8401145287271472</v>
+        <v>0.8403953390018635</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1426</v>
@@ -3267,19 +3267,19 @@
         <v>1459928</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1422796</v>
+        <v>1420418</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1504679</v>
+        <v>1499726</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7342591799943669</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.715584309954541</v>
+        <v>0.7143884119385484</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7567664769853847</v>
+        <v>0.7542757506820017</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3030</v>
@@ -3288,19 +3288,19 @@
         <v>3169730</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3110424</v>
+        <v>3115287</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3220404</v>
+        <v>3225453</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7798218597030177</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7652313271765331</v>
+        <v>0.7664275946537404</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7922887800952382</v>
+        <v>0.7935309177248512</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>91133</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74855</v>
+        <v>74293</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110472</v>
+        <v>110969</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1666396628681868</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1368748872036748</v>
+        <v>0.1358472640242796</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2020023089101363</v>
+        <v>0.2029109724216048</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>97</v>
@@ -3413,19 +3413,19 @@
         <v>105277</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>86787</v>
+        <v>86623</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122446</v>
+        <v>123993</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1917115957252722</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1580408361457614</v>
+        <v>0.1577422806265683</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2229784823817186</v>
+        <v>0.2257945746649236</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -3434,19 +3434,19 @@
         <v>196410</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>171677</v>
+        <v>171774</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>223455</v>
+        <v>226891</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1792014113939449</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1566358651904614</v>
+        <v>0.1567240062394877</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.203877090329871</v>
+        <v>0.2070122085001967</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>455753</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>436414</v>
+        <v>435917</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>472031</v>
+        <v>472593</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8333603371318132</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7979976910898634</v>
+        <v>0.7970890275783951</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8631251127963251</v>
+        <v>0.8641527359757204</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>429</v>
@@ -3484,19 +3484,19 @@
         <v>443863</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>426694</v>
+        <v>425147</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>462353</v>
+        <v>462517</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8082884042747277</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7770215176182814</v>
+        <v>0.7742054253350764</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8419591638542386</v>
+        <v>0.8422577193734316</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>849</v>
@@ -3505,19 +3505,19 @@
         <v>899617</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>872572</v>
+        <v>869136</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>924350</v>
+        <v>924253</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.820798588606055</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7961229096701289</v>
+        <v>0.7929877914998034</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8433641348095386</v>
+        <v>0.8432759937605123</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>776068</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>731108</v>
+        <v>729455</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>827678</v>
+        <v>824818</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2297677681749017</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.216456574496853</v>
+        <v>0.2159672249324044</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2450477752563024</v>
+        <v>0.2442010436774506</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1098</v>
@@ -3630,19 +3630,19 @@
         <v>1230401</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1169886</v>
+        <v>1169765</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1289686</v>
+        <v>1293536</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3483481655023081</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.331215520610998</v>
+        <v>0.3311811099234732</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3651329818526998</v>
+        <v>0.3662229582465405</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1864</v>
@@ -3651,19 +3651,19 @@
         <v>2006468</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1926375</v>
+        <v>1933923</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2087069</v>
+        <v>2086166</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2903835355542502</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2787920699887879</v>
+        <v>0.2798845477074094</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3020483919522631</v>
+        <v>0.3019177450106899</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2601550</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2549940</v>
+        <v>2552800</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2646510</v>
+        <v>2648163</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7702322318250984</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7549522247436975</v>
+        <v>0.7557989563225493</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7835434255031469</v>
+        <v>0.7840327750675953</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2228</v>
@@ -3701,19 +3701,19 @@
         <v>2301699</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2242414</v>
+        <v>2238564</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2362214</v>
+        <v>2362335</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6516518344976919</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6348670181473002</v>
+        <v>0.6337770417534595</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.668784479389002</v>
+        <v>0.6688188900765267</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4677</v>
@@ -3722,19 +3722,19 @@
         <v>4903250</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4822649</v>
+        <v>4823552</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4983343</v>
+        <v>4975795</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7096164644457498</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6979516080477368</v>
+        <v>0.69808225498931</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7212079300112121</v>
+        <v>0.7201154522925906</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>275528</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>252935</v>
+        <v>253078</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>299249</v>
+        <v>300754</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.476255318182959</v>
+        <v>0.4762553181829589</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4372031957621045</v>
+        <v>0.4374505331166953</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.517258547805893</v>
+        <v>0.519860587802235</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1013</v>
@@ -4086,19 +4086,19 @@
         <v>550270</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>527004</v>
+        <v>530015</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>571408</v>
+        <v>571299</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6693977410844345</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.641094058749623</v>
+        <v>0.6447568552503153</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6951111183462352</v>
+        <v>0.6949789148408945</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1394</v>
@@ -4107,19 +4107,19 @@
         <v>825798</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>793657</v>
+        <v>790997</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>858427</v>
+        <v>855703</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5896168020014447</v>
+        <v>0.5896168020014446</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5666684717420704</v>
+        <v>0.5647692565761796</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6129138201086972</v>
+        <v>0.6109687240130284</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>303001</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279280</v>
+        <v>277775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>325594</v>
+        <v>325451</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5237446818170411</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4827414521941071</v>
+        <v>0.4801394121977651</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5627968042378956</v>
+        <v>0.5625494668833048</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>414</v>
@@ -4157,19 +4157,19 @@
         <v>271768</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>250630</v>
+        <v>250739</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>295034</v>
+        <v>292023</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3306022589155654</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3048888816537648</v>
+        <v>0.3050210851591053</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3589059412503773</v>
+        <v>0.3552431447496845</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>724</v>
@@ -4178,19 +4178,19 @@
         <v>574769</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>542140</v>
+        <v>544864</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>606910</v>
+        <v>609570</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4103831979985554</v>
+        <v>0.4103831979985553</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3870861798913028</v>
+        <v>0.3890312759869716</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4333315282579295</v>
+        <v>0.4352307434238204</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>590372</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>547283</v>
+        <v>549368</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>641058</v>
+        <v>640414</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2646737522147127</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2453559415155024</v>
+        <v>0.2462909749697976</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2873969266432909</v>
+        <v>0.287108218481114</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1142</v>
@@ -4303,19 +4303,19 @@
         <v>742310</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>702434</v>
+        <v>701480</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>783350</v>
+        <v>785696</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3418590989853693</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3234949268134264</v>
+        <v>0.3230556055200108</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3607594509368661</v>
+        <v>0.3618396800554159</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1770</v>
@@ -4324,19 +4324,19 @@
         <v>1332683</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1268636</v>
+        <v>1276273</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1390617</v>
+        <v>1398257</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3027476357407997</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.288197999311607</v>
+        <v>0.2899329312329499</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3159086305534907</v>
+        <v>0.3176442267588189</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1640194</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1589508</v>
+        <v>1590152</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1683283</v>
+        <v>1681198</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7353262477852873</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7126030733567092</v>
+        <v>0.7128917815188862</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7546440584844978</v>
+        <v>0.7537090250302024</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1779</v>
@@ -4374,19 +4374,19 @@
         <v>1429082</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1388042</v>
+        <v>1385696</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1468958</v>
+        <v>1469912</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6581409010146309</v>
+        <v>0.6581409010146306</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6392405490631341</v>
+        <v>0.6381603199445842</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6765050731865737</v>
+        <v>0.6769443944799892</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3143</v>
@@ -4395,19 +4395,19 @@
         <v>3069276</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3011342</v>
+        <v>3003702</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3133323</v>
+        <v>3125686</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6972523642592002</v>
+        <v>0.6972523642592003</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6840913694465091</v>
+        <v>0.682355773241181</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7118020006883929</v>
+        <v>0.7100670687670499</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>177316</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>150970</v>
+        <v>154825</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>199792</v>
+        <v>203209</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2491835893219768</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2121601791519017</v>
+        <v>0.2175770286386419</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2807695428105875</v>
+        <v>0.2855710548617986</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>318</v>
@@ -4520,19 +4520,19 @@
         <v>214778</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>194911</v>
+        <v>194644</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>235627</v>
+        <v>237694</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2922641440432561</v>
+        <v>0.292264144043256</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2652290289890462</v>
+        <v>0.2648662346440839</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3206345773743967</v>
+        <v>0.3234467893319153</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>512</v>
@@ -4541,19 +4541,19 @@
         <v>392094</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>360561</v>
+        <v>362264</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>425372</v>
+        <v>426253</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2710706975282592</v>
+        <v>0.2710706975282591</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2492704828607614</v>
+        <v>0.250447664753579</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2940771609911073</v>
+        <v>0.2946862628963847</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>534271</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>511795</v>
+        <v>508378</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>560617</v>
+        <v>556762</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7508164106780231</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7192304571894127</v>
+        <v>0.7144289451382014</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7878398208480982</v>
+        <v>0.7824229713613583</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>686</v>
@@ -4591,19 +4591,19 @@
         <v>520099</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>499250</v>
+        <v>497183</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>539966</v>
+        <v>540233</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7077358559567439</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6793654226256033</v>
+        <v>0.6765532106680848</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.734770971010954</v>
+        <v>0.735133765355916</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1173</v>
@@ -4612,19 +4612,19 @@
         <v>1054370</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1021092</v>
+        <v>1020211</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1085903</v>
+        <v>1084200</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.728929302471741</v>
+        <v>0.7289293024717409</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7059228390088926</v>
+        <v>0.7053137371036151</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7507295171392384</v>
+        <v>0.749552335246421</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1043216</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>986437</v>
+        <v>981181</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1099530</v>
+        <v>1100317</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2963106724101516</v>
+        <v>0.2963106724101517</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.280183445463541</v>
+        <v>0.2786906684503332</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3123058552683632</v>
+        <v>0.3125295095891272</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2473</v>
@@ -4737,19 +4737,19 @@
         <v>1507359</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1455541</v>
+        <v>1456075</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1558248</v>
+        <v>1559298</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4043010984087219</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3904026781310571</v>
+        <v>0.3905458028891336</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4179505753644056</v>
+        <v>0.4182322230260156</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3676</v>
@@ -4758,19 +4758,19 @@
         <v>2550575</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2479177</v>
+        <v>2472696</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2630531</v>
+        <v>2627320</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3518524081550293</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3420030515085659</v>
+        <v>0.3411089732651665</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3628824536410337</v>
+        <v>0.3624394034728288</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2477467</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2421153</v>
+        <v>2420366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2534246</v>
+        <v>2539502</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7036893275898483</v>
+        <v>0.7036893275898484</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6876941447316365</v>
+        <v>0.6874704904108733</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.719816554536459</v>
+        <v>0.7213093315496669</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2879</v>
@@ -4808,19 +4808,19 @@
         <v>2220948</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2170059</v>
+        <v>2169009</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2272766</v>
+        <v>2272232</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.595698901591278</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5820494246355944</v>
+        <v>0.5817677769739849</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.609597321868943</v>
+        <v>0.609454197110867</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5040</v>
@@ -4829,19 +4829,19 @@
         <v>4698415</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4618459</v>
+        <v>4621670</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4769813</v>
+        <v>4776294</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6481475918449706</v>
+        <v>0.6481475918449707</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6371175463589663</v>
+        <v>0.6375605965271712</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6579969484914341</v>
+        <v>0.6588910267348334</v>
       </c>
     </row>
     <row r="15">
